--- a/Code/Results/Cases/Case_5_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_212/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009279459971596</v>
+        <v>1.053582725339496</v>
       </c>
       <c r="D2">
-        <v>1.024852380208567</v>
+        <v>1.050684185109144</v>
       </c>
       <c r="E2">
-        <v>1.022091442394529</v>
+        <v>1.059460595610241</v>
       </c>
       <c r="F2">
-        <v>1.029320442167392</v>
+        <v>1.068449830793772</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050277149299053</v>
+        <v>1.042640248125781</v>
       </c>
       <c r="J2">
-        <v>1.031186122600318</v>
+        <v>1.0585993101037</v>
       </c>
       <c r="K2">
-        <v>1.035976008045173</v>
+        <v>1.053437778997844</v>
       </c>
       <c r="L2">
-        <v>1.033251354021417</v>
+        <v>1.062190038389462</v>
       </c>
       <c r="M2">
-        <v>1.040385867644316</v>
+        <v>1.071154981823424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017110722540171</v>
+        <v>1.055120979901498</v>
       </c>
       <c r="D3">
-        <v>1.030661929967252</v>
+        <v>1.051819178856494</v>
       </c>
       <c r="E3">
-        <v>1.028864203801682</v>
+        <v>1.060834737988353</v>
       </c>
       <c r="F3">
-        <v>1.036502320525466</v>
+        <v>1.069915583190494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052933553888624</v>
+        <v>1.043044498534006</v>
       </c>
       <c r="J3">
-        <v>1.037145556724031</v>
+        <v>1.059785649844038</v>
       </c>
       <c r="K3">
-        <v>1.04091695963896</v>
+        <v>1.054384437793381</v>
       </c>
       <c r="L3">
-        <v>1.039140616310996</v>
+        <v>1.063376998598946</v>
       </c>
       <c r="M3">
-        <v>1.04668851583235</v>
+        <v>1.072435100852805</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022021550327458</v>
+        <v>1.056114749340793</v>
       </c>
       <c r="D4">
-        <v>1.034306353644622</v>
+        <v>1.052551975567683</v>
       </c>
       <c r="E4">
-        <v>1.033117000484809</v>
+        <v>1.061722642927601</v>
       </c>
       <c r="F4">
-        <v>1.041013018629164</v>
+        <v>1.070862850454584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054583983730987</v>
+        <v>1.043303724065596</v>
       </c>
       <c r="J4">
-        <v>1.040878238184765</v>
+        <v>1.060551317887194</v>
       </c>
       <c r="K4">
-        <v>1.044007638239916</v>
+        <v>1.054994790276159</v>
       </c>
       <c r="L4">
-        <v>1.042831510139064</v>
+        <v>1.064143252061468</v>
       </c>
       <c r="M4">
-        <v>1.050640422814378</v>
+        <v>1.0732617340235</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024050763688676</v>
+        <v>1.056532158959303</v>
       </c>
       <c r="D5">
-        <v>1.035812478827047</v>
+        <v>1.052859660512452</v>
       </c>
       <c r="E5">
-        <v>1.034875586982571</v>
+        <v>1.062095623712309</v>
       </c>
       <c r="F5">
-        <v>1.042878497277986</v>
+        <v>1.071260807779602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055262205893226</v>
+        <v>1.04341214191551</v>
       </c>
       <c r="J5">
-        <v>1.042419509226799</v>
+        <v>1.060872738455014</v>
       </c>
       <c r="K5">
-        <v>1.045282809092166</v>
+        <v>1.055250860787709</v>
       </c>
       <c r="L5">
-        <v>1.04435603663557</v>
+        <v>1.06446496266182</v>
       </c>
       <c r="M5">
-        <v>1.05227322418776</v>
+        <v>1.073608852436558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024389467278996</v>
+        <v>1.056602222349224</v>
       </c>
       <c r="D6">
-        <v>1.036063880447582</v>
+        <v>1.052911299868099</v>
       </c>
       <c r="E6">
-        <v>1.035169191830841</v>
+        <v>1.062158231748392</v>
       </c>
       <c r="F6">
-        <v>1.043189962955176</v>
+        <v>1.07132761070696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055375187561642</v>
+        <v>1.043430312947022</v>
       </c>
       <c r="J6">
-        <v>1.042676700781323</v>
+        <v>1.06092667921604</v>
       </c>
       <c r="K6">
-        <v>1.045495536338279</v>
+        <v>1.055293825700704</v>
       </c>
       <c r="L6">
-        <v>1.044610463789187</v>
+        <v>1.064518954692997</v>
       </c>
       <c r="M6">
-        <v>1.052545748461233</v>
+        <v>1.073667111978363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022048800742838</v>
+        <v>1.056120328236416</v>
       </c>
       <c r="D7">
-        <v>1.034326578825316</v>
+        <v>1.052556088366841</v>
       </c>
       <c r="E7">
-        <v>1.033140611693527</v>
+        <v>1.061727627864075</v>
       </c>
       <c r="F7">
-        <v>1.041038064015255</v>
+        <v>1.070868169047317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054593106573929</v>
+        <v>1.043305174949912</v>
       </c>
       <c r="J7">
-        <v>1.040898940514193</v>
+        <v>1.060555614549202</v>
       </c>
       <c r="K7">
-        <v>1.044024770351656</v>
+        <v>1.054998213946794</v>
       </c>
       <c r="L7">
-        <v>1.042851985547313</v>
+        <v>1.064147552426453</v>
       </c>
       <c r="M7">
-        <v>1.050662350594396</v>
+        <v>1.073266373793515</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011959851717382</v>
+        <v>1.054102918616167</v>
       </c>
       <c r="D8">
-        <v>1.026840435198998</v>
+        <v>1.051068100083999</v>
       </c>
       <c r="E8">
-        <v>1.024408269897952</v>
+        <v>1.059925257663561</v>
       </c>
       <c r="F8">
-        <v>1.031777011443544</v>
+        <v>1.068945435614732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05118954810443</v>
+        <v>1.042777354787207</v>
       </c>
       <c r="J8">
-        <v>1.033226722257245</v>
+        <v>1.059000651390739</v>
       </c>
       <c r="K8">
-        <v>1.037668706790154</v>
+        <v>1.053758164991217</v>
       </c>
       <c r="L8">
-        <v>1.035267462157064</v>
+        <v>1.062591551214005</v>
       </c>
       <c r="M8">
-        <v>1.042543082107787</v>
+        <v>1.071587957646325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928740701024588</v>
+        <v>1.050535484534558</v>
       </c>
       <c r="D9">
-        <v>1.012696129428731</v>
+        <v>1.048433437740554</v>
       </c>
       <c r="E9">
-        <v>1.007940633778943</v>
+        <v>1.056739331444527</v>
       </c>
       <c r="F9">
-        <v>1.014320231427781</v>
+        <v>1.065548043957477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044629498459215</v>
+        <v>1.04182915036453</v>
       </c>
       <c r="J9">
-        <v>1.018680997363383</v>
+        <v>1.05624522219175</v>
       </c>
       <c r="K9">
-        <v>1.025586525235755</v>
+        <v>1.05155598245278</v>
       </c>
       <c r="L9">
-        <v>1.020906180185066</v>
+        <v>1.059835706675254</v>
       </c>
       <c r="M9">
-        <v>1.027185168164619</v>
+        <v>1.068617152131452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9790976310777004</v>
+        <v>1.048148273618456</v>
       </c>
       <c r="D10">
-        <v>1.002508815888858</v>
+        <v>1.046668177511426</v>
       </c>
       <c r="E10">
-        <v>0.9960975735966801</v>
+        <v>1.054608300565137</v>
       </c>
       <c r="F10">
-        <v>1.001770802656438</v>
+        <v>1.063276435282976</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039817072544502</v>
+        <v>1.041184679795718</v>
       </c>
       <c r="J10">
-        <v>1.008165827520057</v>
+        <v>1.054397539773978</v>
       </c>
       <c r="K10">
-        <v>1.01683292015435</v>
+        <v>1.05007608801135</v>
       </c>
       <c r="L10">
-        <v>1.010537646851806</v>
+        <v>1.057988705279499</v>
       </c>
       <c r="M10">
-        <v>1.016108158151541</v>
+        <v>1.066627327788519</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.972836485046669</v>
+        <v>1.047112353230527</v>
       </c>
       <c r="D11">
-        <v>0.9978868250910304</v>
+        <v>1.045901636116947</v>
       </c>
       <c r="E11">
-        <v>0.9907276222815041</v>
+        <v>1.053683769300382</v>
       </c>
       <c r="F11">
-        <v>0.9960816510506699</v>
+        <v>1.062291121495491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037612975262877</v>
+        <v>1.040902656842014</v>
       </c>
       <c r="J11">
-        <v>1.003384647460293</v>
+        <v>1.05359484152151</v>
       </c>
       <c r="K11">
-        <v>1.012848703129636</v>
+        <v>1.049432416654926</v>
       </c>
       <c r="L11">
-        <v>1.005826546465882</v>
+        <v>1.05718653079822</v>
       </c>
       <c r="M11">
-        <v>1.011077841945898</v>
+        <v>1.065763419831231</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9704617496285364</v>
+        <v>1.046727219348552</v>
       </c>
       <c r="D12">
-        <v>0.9961352460397142</v>
+        <v>1.045616575834351</v>
       </c>
       <c r="E12">
-        <v>0.9886929911230542</v>
+        <v>1.053340081657253</v>
       </c>
       <c r="F12">
-        <v>0.9939262308667018</v>
+        <v>1.061924869353787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036774596257042</v>
+        <v>1.040797452756536</v>
       </c>
       <c r="J12">
-        <v>1.001571051934116</v>
+        <v>1.053296279545141</v>
       </c>
       <c r="K12">
-        <v>1.011336865094107</v>
+        <v>1.049192891687034</v>
       </c>
       <c r="L12">
-        <v>1.0040400696728</v>
+        <v>1.056888197910704</v>
       </c>
       <c r="M12">
-        <v>1.009170727211025</v>
+        <v>1.065442172491162</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709734403377476</v>
+        <v>1.046809847734835</v>
       </c>
       <c r="D13">
-        <v>0.9965125933885175</v>
+        <v>1.045677737389597</v>
       </c>
       <c r="E13">
-        <v>0.98913130063111</v>
+        <v>1.053413816422767</v>
       </c>
       <c r="F13">
-        <v>0.9943905545420071</v>
+        <v>1.062003443707594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036955350235096</v>
+        <v>1.040820039721496</v>
       </c>
       <c r="J13">
-        <v>1.001961837963904</v>
+        <v>1.0533603405109</v>
       </c>
       <c r="K13">
-        <v>1.011662653354025</v>
+        <v>1.049244290467046</v>
       </c>
       <c r="L13">
-        <v>1.004424987649412</v>
+        <v>1.056952208170827</v>
       </c>
       <c r="M13">
-        <v>1.00958161945321</v>
+        <v>1.065511097256437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9726412187291461</v>
+        <v>1.047080525079264</v>
       </c>
       <c r="D14">
-        <v>0.9977427676819242</v>
+        <v>1.045878079768541</v>
       </c>
       <c r="E14">
-        <v>0.990560277888723</v>
+        <v>1.053655365640672</v>
       </c>
       <c r="F14">
-        <v>0.9959043689494445</v>
+        <v>1.062260852388176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03754408615063</v>
+        <v>1.040893969800478</v>
       </c>
       <c r="J14">
-        <v>1.003235524530434</v>
+        <v>1.05357017058287</v>
       </c>
       <c r="K14">
-        <v>1.012724402940864</v>
+        <v>1.049412626391095</v>
       </c>
       <c r="L14">
-        <v>1.005679642356615</v>
+        <v>1.057161878090717</v>
       </c>
       <c r="M14">
-        <v>1.010921009275955</v>
+        <v>1.065736872681568</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9736621406612602</v>
+        <v>1.047247252051797</v>
       </c>
       <c r="D15">
-        <v>0.998496011902603</v>
+        <v>1.046001473046265</v>
       </c>
       <c r="E15">
-        <v>0.9914353002654449</v>
+        <v>1.05380415532975</v>
       </c>
       <c r="F15">
-        <v>0.9968313605002884</v>
+        <v>1.062419415302402</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037904166149129</v>
+        <v>1.040939461078956</v>
       </c>
       <c r="J15">
-        <v>1.004015185870506</v>
+        <v>1.05369940004098</v>
       </c>
       <c r="K15">
-        <v>1.013374261391315</v>
+        <v>1.049516285653828</v>
       </c>
       <c r="L15">
-        <v>1.006447724933098</v>
+        <v>1.057291013454849</v>
       </c>
       <c r="M15">
-        <v>1.011741019668484</v>
+        <v>1.065875933301978</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9795065500628553</v>
+        <v>1.048216976144536</v>
       </c>
       <c r="D16">
-        <v>1.002810866218077</v>
+        <v>1.046719004035604</v>
       </c>
       <c r="E16">
-        <v>0.9964485636642567</v>
+        <v>1.054669620457449</v>
       </c>
       <c r="F16">
-        <v>1.002142677906707</v>
+        <v>1.063341790937362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039960684776467</v>
+        <v>1.041203334044455</v>
       </c>
       <c r="J16">
-        <v>1.00847805536545</v>
+        <v>1.054450755958531</v>
       </c>
       <c r="K16">
-        <v>1.017093025275296</v>
+        <v>1.050118745438875</v>
       </c>
       <c r="L16">
-        <v>1.010845370555102</v>
+        <v>1.058041891538119</v>
       </c>
       <c r="M16">
-        <v>1.016436788770302</v>
+        <v>1.066684613375063</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9830903254668838</v>
+        <v>1.048824651052474</v>
       </c>
       <c r="D17">
-        <v>1.005458966356714</v>
+        <v>1.047168506279302</v>
       </c>
       <c r="E17">
-        <v>0.9995260793265367</v>
+        <v>1.055212021448083</v>
       </c>
       <c r="F17">
-        <v>1.005403438214553</v>
+        <v>1.063919913771201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041217414184928</v>
+        <v>1.041368059172599</v>
       </c>
       <c r="J17">
-        <v>1.011214193243903</v>
+        <v>1.054921349683436</v>
       </c>
       <c r="K17">
-        <v>1.019371952379779</v>
+        <v>1.050495880677664</v>
       </c>
       <c r="L17">
-        <v>1.013542423194545</v>
+        <v>1.058512246913747</v>
       </c>
       <c r="M17">
-        <v>1.019317384287386</v>
+        <v>1.067191255536798</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9851524797411181</v>
+        <v>1.049178881878058</v>
       </c>
       <c r="D18">
-        <v>1.006983447887803</v>
+        <v>1.04743048419277</v>
       </c>
       <c r="E18">
-        <v>1.001298081893703</v>
+        <v>1.055528223490304</v>
       </c>
       <c r="F18">
-        <v>1.007281053754913</v>
+        <v>1.064256960340069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041938957133404</v>
+        <v>1.041463854879971</v>
       </c>
       <c r="J18">
-        <v>1.012788386181494</v>
+        <v>1.055195584873936</v>
       </c>
       <c r="K18">
-        <v>1.020682716949829</v>
+        <v>1.050715581036973</v>
       </c>
       <c r="L18">
-        <v>1.015094446309221</v>
+        <v>1.058786365152878</v>
       </c>
       <c r="M18">
-        <v>1.020975279231003</v>
+        <v>1.067486549865137</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9858509673475007</v>
+        <v>1.04929962915696</v>
       </c>
       <c r="D19">
-        <v>1.007499932674465</v>
+        <v>1.047519776608264</v>
       </c>
       <c r="E19">
-        <v>1.001898480543045</v>
+        <v>1.055636011404707</v>
       </c>
       <c r="F19">
-        <v>1.007917254378671</v>
+        <v>1.064371857168913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042183081648697</v>
+        <v>1.041496470377313</v>
       </c>
       <c r="J19">
-        <v>1.013321551506297</v>
+        <v>1.055289049102698</v>
       </c>
       <c r="K19">
-        <v>1.021126595467716</v>
+        <v>1.0507904465061</v>
       </c>
       <c r="L19">
-        <v>1.015620156055614</v>
+        <v>1.058879793243854</v>
       </c>
       <c r="M19">
-        <v>1.02153689300582</v>
+        <v>1.067587200268405</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9827087685487755</v>
+        <v>1.048759475666046</v>
       </c>
       <c r="D20">
-        <v>1.005176951379329</v>
+        <v>1.04712030062099</v>
       </c>
       <c r="E20">
-        <v>0.9991983010747392</v>
+        <v>1.0551538447293</v>
       </c>
       <c r="F20">
-        <v>1.005056132453825</v>
+        <v>1.063857903552679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041083777976078</v>
+        <v>1.041350415295923</v>
       </c>
       <c r="J20">
-        <v>1.010922904242483</v>
+        <v>1.054870885774762</v>
       </c>
       <c r="K20">
-        <v>1.019129377082224</v>
+        <v>1.050455446252405</v>
       </c>
       <c r="L20">
-        <v>1.013255262055038</v>
+        <v>1.058461806293427</v>
       </c>
       <c r="M20">
-        <v>1.019010654712245</v>
+        <v>1.067136920591993</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9721514945110338</v>
+        <v>1.047000827005694</v>
       </c>
       <c r="D21">
-        <v>0.9973814987620946</v>
+        <v>1.045819093166184</v>
       </c>
       <c r="E21">
-        <v>0.9901406156955151</v>
+        <v>1.053584243088155</v>
       </c>
       <c r="F21">
-        <v>0.9954597876438274</v>
+        <v>1.062185059268652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037371275393582</v>
+        <v>1.040872211632162</v>
       </c>
       <c r="J21">
-        <v>1.002861524649268</v>
+        <v>1.0535083920727</v>
       </c>
       <c r="K21">
-        <v>1.012412649846069</v>
+        <v>1.049363067762377</v>
       </c>
       <c r="L21">
-        <v>1.005311215977139</v>
+        <v>1.05710014578674</v>
       </c>
       <c r="M21">
-        <v>1.010527689304525</v>
+        <v>1.065670397266158</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9652270246389357</v>
+        <v>1.045893082554855</v>
       </c>
       <c r="D22">
-        <v>0.9922771738578906</v>
+        <v>1.044999044432368</v>
       </c>
       <c r="E22">
-        <v>0.9842120919908246</v>
+        <v>1.052595773876913</v>
       </c>
       <c r="F22">
-        <v>0.9891795876527326</v>
+        <v>1.061131751341958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034922248231773</v>
+        <v>1.040568951307832</v>
       </c>
       <c r="J22">
-        <v>0.9975731157199278</v>
+        <v>1.052649396396173</v>
       </c>
       <c r="K22">
-        <v>1.008003189745864</v>
+        <v>1.048673716047515</v>
       </c>
       <c r="L22">
-        <v>1.000102935353134</v>
+        <v>1.056241873869333</v>
       </c>
       <c r="M22">
-        <v>1.00496849036855</v>
+        <v>1.064746286939809</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9689267177857503</v>
+        <v>1.046480512957785</v>
       </c>
       <c r="D23">
-        <v>0.9950034688376114</v>
+        <v>1.045433952664997</v>
       </c>
       <c r="E23">
-        <v>0.9873784214471515</v>
+        <v>1.053119934307371</v>
       </c>
       <c r="F23">
-        <v>0.9925336616659576</v>
+        <v>1.061690277143906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036232007380521</v>
+        <v>1.040729962318451</v>
       </c>
       <c r="J23">
-        <v>1.000398710392287</v>
+        <v>1.053104990766367</v>
       </c>
       <c r="K23">
-        <v>1.010359438694634</v>
+        <v>1.049039396261854</v>
       </c>
       <c r="L23">
-        <v>1.002885412739363</v>
+        <v>1.056697065562581</v>
       </c>
       <c r="M23">
-        <v>1.007938214749823</v>
+        <v>1.065236372133717</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9828812645050287</v>
+        <v>1.048788926284317</v>
       </c>
       <c r="D24">
-        <v>1.005304443727114</v>
+        <v>1.047142083329463</v>
       </c>
       <c r="E24">
-        <v>0.9993464809501236</v>
+        <v>1.055180132813806</v>
       </c>
       <c r="F24">
-        <v>1.005213139880002</v>
+        <v>1.063885923804207</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041144197802834</v>
+        <v>1.041358388687136</v>
       </c>
       <c r="J24">
-        <v>1.011054592166946</v>
+        <v>1.054893689028454</v>
       </c>
       <c r="K24">
-        <v>1.019239043365832</v>
+        <v>1.050473717682464</v>
       </c>
       <c r="L24">
-        <v>1.013385082843192</v>
+        <v>1.058484598955912</v>
       </c>
       <c r="M24">
-        <v>1.019149321283475</v>
+        <v>1.067161472899284</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9979797234509632</v>
+        <v>1.051459286112721</v>
       </c>
       <c r="D25">
-        <v>1.016476888605244</v>
+        <v>1.049116091652548</v>
       </c>
       <c r="E25">
-        <v>1.0123391483355</v>
+        <v>1.057564187351187</v>
       </c>
       <c r="F25">
-        <v>1.018982067782992</v>
+        <v>1.066427496593095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046397909951887</v>
+        <v>1.04207644663955</v>
       </c>
       <c r="J25">
-        <v>1.022575269771576</v>
+        <v>1.0569594294197</v>
       </c>
       <c r="K25">
-        <v>1.028824695497369</v>
+        <v>1.052127352002485</v>
       </c>
       <c r="L25">
-        <v>1.02474888778346</v>
+        <v>1.060549852986283</v>
       </c>
       <c r="M25">
-        <v>1.031292688482463</v>
+        <v>1.069386784174056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_212/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053582725339496</v>
+        <v>1.009279459971596</v>
       </c>
       <c r="D2">
-        <v>1.050684185109144</v>
+        <v>1.024852380208567</v>
       </c>
       <c r="E2">
-        <v>1.059460595610241</v>
+        <v>1.022091442394529</v>
       </c>
       <c r="F2">
-        <v>1.068449830793772</v>
+        <v>1.029320442167392</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042640248125781</v>
+        <v>1.050277149299053</v>
       </c>
       <c r="J2">
-        <v>1.0585993101037</v>
+        <v>1.031186122600318</v>
       </c>
       <c r="K2">
-        <v>1.053437778997844</v>
+        <v>1.035976008045173</v>
       </c>
       <c r="L2">
-        <v>1.062190038389462</v>
+        <v>1.033251354021417</v>
       </c>
       <c r="M2">
-        <v>1.071154981823424</v>
+        <v>1.040385867644316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055120979901498</v>
+        <v>1.017110722540172</v>
       </c>
       <c r="D3">
-        <v>1.051819178856494</v>
+        <v>1.030661929967253</v>
       </c>
       <c r="E3">
-        <v>1.060834737988353</v>
+        <v>1.028864203801684</v>
       </c>
       <c r="F3">
-        <v>1.069915583190494</v>
+        <v>1.036502320525468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043044498534006</v>
+        <v>1.052933553888624</v>
       </c>
       <c r="J3">
-        <v>1.059785649844038</v>
+        <v>1.037145556724032</v>
       </c>
       <c r="K3">
-        <v>1.054384437793381</v>
+        <v>1.040916959638962</v>
       </c>
       <c r="L3">
-        <v>1.063376998598946</v>
+        <v>1.039140616310998</v>
       </c>
       <c r="M3">
-        <v>1.072435100852805</v>
+        <v>1.046688515832351</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056114749340793</v>
+        <v>1.022021550327457</v>
       </c>
       <c r="D4">
-        <v>1.052551975567683</v>
+        <v>1.034306353644621</v>
       </c>
       <c r="E4">
-        <v>1.061722642927601</v>
+        <v>1.033117000484808</v>
       </c>
       <c r="F4">
-        <v>1.070862850454584</v>
+        <v>1.041013018629164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043303724065596</v>
+        <v>1.054583983730986</v>
       </c>
       <c r="J4">
-        <v>1.060551317887194</v>
+        <v>1.040878238184764</v>
       </c>
       <c r="K4">
-        <v>1.054994790276159</v>
+        <v>1.044007638239915</v>
       </c>
       <c r="L4">
-        <v>1.064143252061468</v>
+        <v>1.042831510139063</v>
       </c>
       <c r="M4">
-        <v>1.0732617340235</v>
+        <v>1.050640422814377</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056532158959303</v>
+        <v>1.024050763688674</v>
       </c>
       <c r="D5">
-        <v>1.052859660512452</v>
+        <v>1.035812478827045</v>
       </c>
       <c r="E5">
-        <v>1.062095623712309</v>
+        <v>1.034875586982569</v>
       </c>
       <c r="F5">
-        <v>1.071260807779602</v>
+        <v>1.042878497277984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04341214191551</v>
+        <v>1.055262205893225</v>
       </c>
       <c r="J5">
-        <v>1.060872738455014</v>
+        <v>1.042419509226798</v>
       </c>
       <c r="K5">
-        <v>1.055250860787709</v>
+        <v>1.045282809092165</v>
       </c>
       <c r="L5">
-        <v>1.06446496266182</v>
+        <v>1.044356036635568</v>
       </c>
       <c r="M5">
-        <v>1.073608852436558</v>
+        <v>1.052273224187759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056602222349224</v>
+        <v>1.024389467278995</v>
       </c>
       <c r="D6">
-        <v>1.052911299868099</v>
+        <v>1.036063880447582</v>
       </c>
       <c r="E6">
-        <v>1.062158231748392</v>
+        <v>1.03516919183084</v>
       </c>
       <c r="F6">
-        <v>1.07132761070696</v>
+        <v>1.043189962955176</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043430312947022</v>
+        <v>1.055375187561641</v>
       </c>
       <c r="J6">
-        <v>1.06092667921604</v>
+        <v>1.042676700781322</v>
       </c>
       <c r="K6">
-        <v>1.055293825700704</v>
+        <v>1.045495536338278</v>
       </c>
       <c r="L6">
-        <v>1.064518954692997</v>
+        <v>1.044610463789186</v>
       </c>
       <c r="M6">
-        <v>1.073667111978363</v>
+        <v>1.052545748461232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056120328236416</v>
+        <v>1.022048800742839</v>
       </c>
       <c r="D7">
-        <v>1.052556088366841</v>
+        <v>1.034326578825316</v>
       </c>
       <c r="E7">
-        <v>1.061727627864075</v>
+        <v>1.033140611693527</v>
       </c>
       <c r="F7">
-        <v>1.070868169047317</v>
+        <v>1.041038064015257</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043305174949912</v>
+        <v>1.054593106573929</v>
       </c>
       <c r="J7">
-        <v>1.060555614549202</v>
+        <v>1.040898940514194</v>
       </c>
       <c r="K7">
-        <v>1.054998213946794</v>
+        <v>1.044024770351657</v>
       </c>
       <c r="L7">
-        <v>1.064147552426453</v>
+        <v>1.042851985547314</v>
       </c>
       <c r="M7">
-        <v>1.073266373793515</v>
+        <v>1.050662350594398</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054102918616167</v>
+        <v>1.011959851717382</v>
       </c>
       <c r="D8">
-        <v>1.051068100083999</v>
+        <v>1.026840435198997</v>
       </c>
       <c r="E8">
-        <v>1.059925257663561</v>
+        <v>1.024408269897952</v>
       </c>
       <c r="F8">
-        <v>1.068945435614732</v>
+        <v>1.031777011443544</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042777354787207</v>
+        <v>1.05118954810443</v>
       </c>
       <c r="J8">
-        <v>1.059000651390739</v>
+        <v>1.033226722257245</v>
       </c>
       <c r="K8">
-        <v>1.053758164991217</v>
+        <v>1.037668706790154</v>
       </c>
       <c r="L8">
-        <v>1.062591551214005</v>
+        <v>1.035267462157064</v>
       </c>
       <c r="M8">
-        <v>1.071587957646325</v>
+        <v>1.042543082107787</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050535484534558</v>
+        <v>0.9928740701024567</v>
       </c>
       <c r="D9">
-        <v>1.048433437740554</v>
+        <v>1.01269612942873</v>
       </c>
       <c r="E9">
-        <v>1.056739331444527</v>
+        <v>1.007940633778941</v>
       </c>
       <c r="F9">
-        <v>1.065548043957477</v>
+        <v>1.014320231427779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04182915036453</v>
+        <v>1.044629498459214</v>
       </c>
       <c r="J9">
-        <v>1.05624522219175</v>
+        <v>1.018680997363381</v>
       </c>
       <c r="K9">
-        <v>1.05155598245278</v>
+        <v>1.025586525235753</v>
       </c>
       <c r="L9">
-        <v>1.059835706675254</v>
+        <v>1.020906180185064</v>
       </c>
       <c r="M9">
-        <v>1.068617152131452</v>
+        <v>1.027185168164617</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048148273618456</v>
+        <v>0.9790976310777011</v>
       </c>
       <c r="D10">
-        <v>1.046668177511426</v>
+        <v>1.002508815888858</v>
       </c>
       <c r="E10">
-        <v>1.054608300565137</v>
+        <v>0.9960975735966806</v>
       </c>
       <c r="F10">
-        <v>1.063276435282976</v>
+        <v>1.001770802656438</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041184679795718</v>
+        <v>1.039817072544502</v>
       </c>
       <c r="J10">
-        <v>1.054397539773978</v>
+        <v>1.008165827520058</v>
       </c>
       <c r="K10">
-        <v>1.05007608801135</v>
+        <v>1.016832920154351</v>
       </c>
       <c r="L10">
-        <v>1.057988705279499</v>
+        <v>1.010537646851806</v>
       </c>
       <c r="M10">
-        <v>1.066627327788519</v>
+        <v>1.016108158151542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047112353230527</v>
+        <v>0.9728364850466696</v>
       </c>
       <c r="D11">
-        <v>1.045901636116947</v>
+        <v>0.997886825091031</v>
       </c>
       <c r="E11">
-        <v>1.053683769300382</v>
+        <v>0.9907276222815048</v>
       </c>
       <c r="F11">
-        <v>1.062291121495491</v>
+        <v>0.9960816510506709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040902656842014</v>
+        <v>1.037612975262877</v>
       </c>
       <c r="J11">
-        <v>1.05359484152151</v>
+        <v>1.003384647460294</v>
       </c>
       <c r="K11">
-        <v>1.049432416654926</v>
+        <v>1.012848703129636</v>
       </c>
       <c r="L11">
-        <v>1.05718653079822</v>
+        <v>1.005826546465883</v>
       </c>
       <c r="M11">
-        <v>1.065763419831231</v>
+        <v>1.011077841945899</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046727219348552</v>
+        <v>0.9704617496285349</v>
       </c>
       <c r="D12">
-        <v>1.045616575834351</v>
+        <v>0.9961352460397134</v>
       </c>
       <c r="E12">
-        <v>1.053340081657253</v>
+        <v>0.9886929911230524</v>
       </c>
       <c r="F12">
-        <v>1.061924869353787</v>
+        <v>0.9939262308667004</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040797452756536</v>
+        <v>1.036774596257042</v>
       </c>
       <c r="J12">
-        <v>1.053296279545141</v>
+        <v>1.001571051934115</v>
       </c>
       <c r="K12">
-        <v>1.049192891687034</v>
+        <v>1.011336865094105</v>
       </c>
       <c r="L12">
-        <v>1.056888197910704</v>
+        <v>1.004040069672798</v>
       </c>
       <c r="M12">
-        <v>1.065442172491162</v>
+        <v>1.009170727211023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046809847734835</v>
+        <v>0.9709734403377472</v>
       </c>
       <c r="D13">
-        <v>1.045677737389597</v>
+        <v>0.9965125933885169</v>
       </c>
       <c r="E13">
-        <v>1.053413816422767</v>
+        <v>0.9891313006311093</v>
       </c>
       <c r="F13">
-        <v>1.062003443707594</v>
+        <v>0.9943905545420066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040820039721496</v>
+        <v>1.036955350235096</v>
       </c>
       <c r="J13">
-        <v>1.0533603405109</v>
+        <v>1.001961837963904</v>
       </c>
       <c r="K13">
-        <v>1.049244290467046</v>
+        <v>1.011662653354025</v>
       </c>
       <c r="L13">
-        <v>1.056952208170827</v>
+        <v>1.004424987649412</v>
       </c>
       <c r="M13">
-        <v>1.065511097256437</v>
+        <v>1.00958161945321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047080525079264</v>
+        <v>0.9726412187291481</v>
       </c>
       <c r="D14">
-        <v>1.045878079768541</v>
+        <v>0.9977427676819255</v>
       </c>
       <c r="E14">
-        <v>1.053655365640672</v>
+        <v>0.9905602778887248</v>
       </c>
       <c r="F14">
-        <v>1.062260852388176</v>
+        <v>0.9959043689494465</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040893969800478</v>
+        <v>1.037544086150631</v>
       </c>
       <c r="J14">
-        <v>1.05357017058287</v>
+        <v>1.003235524530436</v>
       </c>
       <c r="K14">
-        <v>1.049412626391095</v>
+        <v>1.012724402940865</v>
       </c>
       <c r="L14">
-        <v>1.057161878090717</v>
+        <v>1.005679642356617</v>
       </c>
       <c r="M14">
-        <v>1.065736872681568</v>
+        <v>1.010921009275957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047247252051797</v>
+        <v>0.9736621406612602</v>
       </c>
       <c r="D15">
-        <v>1.046001473046265</v>
+        <v>0.9984960119026032</v>
       </c>
       <c r="E15">
-        <v>1.05380415532975</v>
+        <v>0.991435300265445</v>
       </c>
       <c r="F15">
-        <v>1.062419415302402</v>
+        <v>0.9968313605002886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040939461078956</v>
+        <v>1.037904166149129</v>
       </c>
       <c r="J15">
-        <v>1.05369940004098</v>
+        <v>1.004015185870506</v>
       </c>
       <c r="K15">
-        <v>1.049516285653828</v>
+        <v>1.013374261391315</v>
       </c>
       <c r="L15">
-        <v>1.057291013454849</v>
+        <v>1.006447724933098</v>
       </c>
       <c r="M15">
-        <v>1.065875933301978</v>
+        <v>1.011741019668484</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048216976144536</v>
+        <v>0.9795065500628534</v>
       </c>
       <c r="D16">
-        <v>1.046719004035604</v>
+        <v>1.002810866218076</v>
       </c>
       <c r="E16">
-        <v>1.054669620457449</v>
+        <v>0.9964485636642552</v>
       </c>
       <c r="F16">
-        <v>1.063341790937362</v>
+        <v>1.002142677906706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041203334044455</v>
+        <v>1.039960684776467</v>
       </c>
       <c r="J16">
-        <v>1.054450755958531</v>
+        <v>1.008478055365448</v>
       </c>
       <c r="K16">
-        <v>1.050118745438875</v>
+        <v>1.017093025275295</v>
       </c>
       <c r="L16">
-        <v>1.058041891538119</v>
+        <v>1.0108453705551</v>
       </c>
       <c r="M16">
-        <v>1.066684613375063</v>
+        <v>1.0164367887703</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048824651052474</v>
+        <v>0.9830903254668821</v>
       </c>
       <c r="D17">
-        <v>1.047168506279302</v>
+        <v>1.005458966356713</v>
       </c>
       <c r="E17">
-        <v>1.055212021448083</v>
+        <v>0.9995260793265353</v>
       </c>
       <c r="F17">
-        <v>1.063919913771201</v>
+        <v>1.005403438214552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041368059172599</v>
+        <v>1.041217414184927</v>
       </c>
       <c r="J17">
-        <v>1.054921349683436</v>
+        <v>1.011214193243902</v>
       </c>
       <c r="K17">
-        <v>1.050495880677664</v>
+        <v>1.019371952379778</v>
       </c>
       <c r="L17">
-        <v>1.058512246913747</v>
+        <v>1.013542423194544</v>
       </c>
       <c r="M17">
-        <v>1.067191255536798</v>
+        <v>1.019317384287384</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049178881878058</v>
+        <v>0.9851524797411182</v>
       </c>
       <c r="D18">
-        <v>1.04743048419277</v>
+        <v>1.006983447887804</v>
       </c>
       <c r="E18">
-        <v>1.055528223490304</v>
+        <v>1.001298081893703</v>
       </c>
       <c r="F18">
-        <v>1.064256960340069</v>
+        <v>1.007281053754913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041463854879971</v>
+        <v>1.041938957133404</v>
       </c>
       <c r="J18">
-        <v>1.055195584873936</v>
+        <v>1.012788386181495</v>
       </c>
       <c r="K18">
-        <v>1.050715581036973</v>
+        <v>1.020682716949829</v>
       </c>
       <c r="L18">
-        <v>1.058786365152878</v>
+        <v>1.015094446309221</v>
       </c>
       <c r="M18">
-        <v>1.067486549865137</v>
+        <v>1.020975279231003</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04929962915696</v>
+        <v>0.9858509673475003</v>
       </c>
       <c r="D19">
-        <v>1.047519776608264</v>
+        <v>1.007499932674465</v>
       </c>
       <c r="E19">
-        <v>1.055636011404707</v>
+        <v>1.001898480543045</v>
       </c>
       <c r="F19">
-        <v>1.064371857168913</v>
+        <v>1.00791725437867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041496470377313</v>
+        <v>1.042183081648696</v>
       </c>
       <c r="J19">
-        <v>1.055289049102698</v>
+        <v>1.013321551506296</v>
       </c>
       <c r="K19">
-        <v>1.0507904465061</v>
+        <v>1.021126595467715</v>
       </c>
       <c r="L19">
-        <v>1.058879793243854</v>
+        <v>1.015620156055614</v>
       </c>
       <c r="M19">
-        <v>1.067587200268405</v>
+        <v>1.02153689300582</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048759475666046</v>
+        <v>0.9827087685487749</v>
       </c>
       <c r="D20">
-        <v>1.04712030062099</v>
+        <v>1.005176951379328</v>
       </c>
       <c r="E20">
-        <v>1.0551538447293</v>
+        <v>0.9991983010747387</v>
       </c>
       <c r="F20">
-        <v>1.063857903552679</v>
+        <v>1.005056132453825</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041350415295923</v>
+        <v>1.041083777976078</v>
       </c>
       <c r="J20">
-        <v>1.054870885774762</v>
+        <v>1.010922904242482</v>
       </c>
       <c r="K20">
-        <v>1.050455446252405</v>
+        <v>1.019129377082224</v>
       </c>
       <c r="L20">
-        <v>1.058461806293427</v>
+        <v>1.013255262055038</v>
       </c>
       <c r="M20">
-        <v>1.067136920591993</v>
+        <v>1.019010654712245</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047000827005694</v>
+        <v>0.9721514945110329</v>
       </c>
       <c r="D21">
-        <v>1.045819093166184</v>
+        <v>0.997381498762094</v>
       </c>
       <c r="E21">
-        <v>1.053584243088155</v>
+        <v>0.9901406156955139</v>
       </c>
       <c r="F21">
-        <v>1.062185059268652</v>
+        <v>0.995459787643826</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040872211632162</v>
+        <v>1.037371275393581</v>
       </c>
       <c r="J21">
-        <v>1.0535083920727</v>
+        <v>1.002861524649267</v>
       </c>
       <c r="K21">
-        <v>1.049363067762377</v>
+        <v>1.012412649846069</v>
       </c>
       <c r="L21">
-        <v>1.05710014578674</v>
+        <v>1.005311215977138</v>
       </c>
       <c r="M21">
-        <v>1.065670397266158</v>
+        <v>1.010527689304523</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045893082554855</v>
+        <v>0.9652270246389348</v>
       </c>
       <c r="D22">
-        <v>1.044999044432368</v>
+        <v>0.9922771738578898</v>
       </c>
       <c r="E22">
-        <v>1.052595773876913</v>
+        <v>0.9842120919908238</v>
       </c>
       <c r="F22">
-        <v>1.061131751341958</v>
+        <v>0.9891795876527316</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040568951307832</v>
+        <v>1.034922248231772</v>
       </c>
       <c r="J22">
-        <v>1.052649396396173</v>
+        <v>0.9975731157199269</v>
       </c>
       <c r="K22">
-        <v>1.048673716047515</v>
+        <v>1.008003189745863</v>
       </c>
       <c r="L22">
-        <v>1.056241873869333</v>
+        <v>1.000102935353133</v>
       </c>
       <c r="M22">
-        <v>1.064746286939809</v>
+        <v>1.004968490368549</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046480512957785</v>
+        <v>0.9689267177857483</v>
       </c>
       <c r="D23">
-        <v>1.045433952664997</v>
+        <v>0.99500346883761</v>
       </c>
       <c r="E23">
-        <v>1.053119934307371</v>
+        <v>0.9873784214471499</v>
       </c>
       <c r="F23">
-        <v>1.061690277143906</v>
+        <v>0.9925336616659556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040729962318451</v>
+        <v>1.03623200738052</v>
       </c>
       <c r="J23">
-        <v>1.053104990766367</v>
+        <v>1.000398710392285</v>
       </c>
       <c r="K23">
-        <v>1.049039396261854</v>
+        <v>1.010359438694632</v>
       </c>
       <c r="L23">
-        <v>1.056697065562581</v>
+        <v>1.002885412739361</v>
       </c>
       <c r="M23">
-        <v>1.065236372133717</v>
+        <v>1.007938214749821</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048788926284317</v>
+        <v>0.9828812645050302</v>
       </c>
       <c r="D24">
-        <v>1.047142083329463</v>
+        <v>1.005304443727116</v>
       </c>
       <c r="E24">
-        <v>1.055180132813806</v>
+        <v>0.9993464809501251</v>
       </c>
       <c r="F24">
-        <v>1.063885923804207</v>
+        <v>1.005213139880004</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041358388687136</v>
+        <v>1.041144197802835</v>
       </c>
       <c r="J24">
-        <v>1.054893689028454</v>
+        <v>1.011054592166948</v>
       </c>
       <c r="K24">
-        <v>1.050473717682464</v>
+        <v>1.019239043365833</v>
       </c>
       <c r="L24">
-        <v>1.058484598955912</v>
+        <v>1.013385082843194</v>
       </c>
       <c r="M24">
-        <v>1.067161472899284</v>
+        <v>1.019149321283476</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051459286112721</v>
+        <v>0.9979797234509643</v>
       </c>
       <c r="D25">
-        <v>1.049116091652548</v>
+        <v>1.016476888605246</v>
       </c>
       <c r="E25">
-        <v>1.057564187351187</v>
+        <v>1.012339148335501</v>
       </c>
       <c r="F25">
-        <v>1.066427496593095</v>
+        <v>1.018982067782994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04207644663955</v>
+        <v>1.046397909951888</v>
       </c>
       <c r="J25">
-        <v>1.0569594294197</v>
+        <v>1.022575269771578</v>
       </c>
       <c r="K25">
-        <v>1.052127352002485</v>
+        <v>1.02882469549737</v>
       </c>
       <c r="L25">
-        <v>1.060549852986283</v>
+        <v>1.024748887783461</v>
       </c>
       <c r="M25">
-        <v>1.069386784174056</v>
+        <v>1.031292688482464</v>
       </c>
     </row>
   </sheetData>
